--- a/data_group/kendall_test_evapo_results.xlsx
+++ b/data_group/kendall_test_evapo_results.xlsx
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.5681001099060107</v>
+        <v>0.5665253348265762</v>
       </c>
       <c r="D2">
-        <v>4.653030472896079E-11</v>
+        <v>5.259783106607983E-11</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.5027469441094773</v>
+        <v>0.4862118057754146</v>
       </c>
       <c r="D3">
-        <v>5.728519985683621E-09</v>
+        <v>1.77172591294012E-08</v>
       </c>
     </row>
     <row r="4">
@@ -427,10 +427,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4129847645817084</v>
+        <v>0.4003865639462321</v>
       </c>
       <c r="D4">
-        <v>1.713534757719888E-06</v>
+        <v>3.507502774753634E-06</v>
       </c>
     </row>
     <row r="5">
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3460568237057404</v>
+        <v>0.342119886007154</v>
       </c>
       <c r="D5">
-        <v>6.092811131255537E-05</v>
+        <v>7.38352222690694E-05</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.3744027751355621</v>
+        <v>0.3736153875958449</v>
       </c>
       <c r="D6">
-        <v>1.440569944501239E-05</v>
+        <v>1.501538287042909E-05</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.09645497361536565</v>
+        <v>0.1114153368699938</v>
       </c>
       <c r="D12">
-        <v>0.2637959840850655</v>
+        <v>0.1967782591897079</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0681090221855439</v>
+        <v>0.1169270496480147</v>
       </c>
       <c r="D13">
-        <v>0.43007318951554</v>
+        <v>0.1755322725433983</v>
       </c>
     </row>
     <row r="14">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.1318874129026428</v>
+        <v>0.1429108384586846</v>
       </c>
       <c r="D14">
-        <v>0.1265222265710154</v>
+        <v>0.0977884327793785</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.2043270665566317</v>
+        <v>0.1917288659211554</v>
       </c>
       <c r="D15">
-        <v>0.01792328069347479</v>
+        <v>0.02633438764716178</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.312986547037615</v>
+        <v>0.292514471004966</v>
       </c>
       <c r="D16">
-        <v>0.0002877822457655666</v>
+        <v>0.000701785568081745</v>
       </c>
     </row>
     <row r="17">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.1633829144913336</v>
+        <v>-0.1098405617905592</v>
       </c>
       <c r="D22">
-        <v>0.05837819487791586</v>
+        <v>0.2031810955034172</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.2373973432247571</v>
+        <v>0.09409281099621383</v>
       </c>
       <c r="D23">
-        <v>0.005953531768786712</v>
+        <v>0.2756701824128684</v>
       </c>
     </row>
     <row r="24">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.2224369799701289</v>
+        <v>0.14999732631614</v>
       </c>
       <c r="D24">
-        <v>0.009965940908658134</v>
+        <v>0.0822512525229374</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.1854297656034172</v>
+        <v>0.1366117381409464</v>
       </c>
       <c r="D25">
-        <v>0.03169250913624754</v>
+        <v>0.1134912471910934</v>
       </c>
     </row>
     <row r="26">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.2279486927481498</v>
+        <v>0.2122009419538044</v>
       </c>
       <c r="D26">
-        <v>0.008269493158224152</v>
+        <v>0.01395495536864521</v>
       </c>
     </row>
     <row r="27">
